--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/75/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/75/FD_Curve.xlsx
@@ -554,1011 +554,1011 @@
         <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>9.802910000000001</v>
+        <v>10.0216</v>
       </c>
       <c r="C11" t="n">
-        <v>9802.91</v>
+        <v>10021.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309773</v>
+        <v>0.309783</v>
       </c>
       <c r="B12" t="n">
-        <v>9.955399999999999</v>
+        <v>11.1835</v>
       </c>
       <c r="C12" t="n">
-        <v>9955.4</v>
+        <v>11183.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340699</v>
+        <v>0.340708</v>
       </c>
       <c r="B13" t="n">
-        <v>10.1461</v>
+        <v>12.1196</v>
       </c>
       <c r="C13" t="n">
-        <v>10146.1</v>
+        <v>12119.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371624</v>
+        <v>0.371633</v>
       </c>
       <c r="B14" t="n">
-        <v>10.1878</v>
+        <v>12.8197</v>
       </c>
       <c r="C14" t="n">
-        <v>10187.8</v>
+        <v>12819.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402549</v>
+        <v>0.402558</v>
       </c>
       <c r="B15" t="n">
-        <v>10.221</v>
+        <v>13.4859</v>
       </c>
       <c r="C15" t="n">
-        <v>10221</v>
+        <v>13485.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433474</v>
+        <v>0.433478</v>
       </c>
       <c r="B16" t="n">
-        <v>10.2304</v>
+        <v>14.1138</v>
       </c>
       <c r="C16" t="n">
-        <v>10230.4</v>
+        <v>14113.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464399</v>
+        <v>0.464403</v>
       </c>
       <c r="B17" t="n">
-        <v>10.2231</v>
+        <v>14.4013</v>
       </c>
       <c r="C17" t="n">
-        <v>10223.1</v>
+        <v>14401.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495324</v>
+        <v>0.495328</v>
       </c>
       <c r="B18" t="n">
-        <v>10.2072</v>
+        <v>14.6125</v>
       </c>
       <c r="C18" t="n">
-        <v>10207.2</v>
+        <v>14612.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526249</v>
+        <v>0.526253</v>
       </c>
       <c r="B19" t="n">
-        <v>10.1859</v>
+        <v>14.6338</v>
       </c>
       <c r="C19" t="n">
-        <v>10185.9</v>
+        <v>14633.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571739999999999</v>
+        <v>0.557178</v>
       </c>
       <c r="B20" t="n">
-        <v>10.1629</v>
+        <v>14.6068</v>
       </c>
       <c r="C20" t="n">
-        <v>10162.9</v>
+        <v>14606.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588099</v>
+        <v>0.588103</v>
       </c>
       <c r="B21" t="n">
-        <v>10.1365</v>
+        <v>14.5672</v>
       </c>
       <c r="C21" t="n">
-        <v>10136.5</v>
+        <v>14567.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191410000000001</v>
+        <v>0.6191449999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>10.1096</v>
+        <v>14.5214</v>
       </c>
       <c r="C22" t="n">
-        <v>10109.6</v>
+        <v>14521.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650313</v>
+        <v>0.650318</v>
       </c>
       <c r="B23" t="n">
-        <v>10.0795</v>
+        <v>14.4698</v>
       </c>
       <c r="C23" t="n">
-        <v>10079.5</v>
+        <v>14469.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681486</v>
+        <v>0.681495</v>
       </c>
       <c r="B24" t="n">
-        <v>10.0472</v>
+        <v>14.4147</v>
       </c>
       <c r="C24" t="n">
-        <v>10047.2</v>
+        <v>14414.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712663</v>
+        <v>0.7126670000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>10.0136</v>
+        <v>14.3564</v>
       </c>
       <c r="C25" t="n">
-        <v>10013.6</v>
+        <v>14356.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438360000000001</v>
+        <v>0.7438439999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>9.978020000000001</v>
+        <v>14.2957</v>
       </c>
       <c r="C26" t="n">
-        <v>9978.02</v>
+        <v>14295.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775013</v>
+        <v>0.775017</v>
       </c>
       <c r="B27" t="n">
-        <v>9.941510000000001</v>
+        <v>14.2338</v>
       </c>
       <c r="C27" t="n">
-        <v>9941.51</v>
+        <v>14233.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806185</v>
+        <v>0.80619</v>
       </c>
       <c r="B28" t="n">
-        <v>9.90307</v>
+        <v>14.1694</v>
       </c>
       <c r="C28" t="n">
-        <v>9903.07</v>
+        <v>14169.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837358</v>
+        <v>0.837367</v>
       </c>
       <c r="B29" t="n">
-        <v>9.86397</v>
+        <v>14.1025</v>
       </c>
       <c r="C29" t="n">
-        <v>9863.969999999999</v>
+        <v>14102.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685349999999999</v>
+        <v>0.8685389999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>9.823459999999999</v>
+        <v>14.031</v>
       </c>
       <c r="C30" t="n">
-        <v>9823.459999999999</v>
+        <v>14031</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899707</v>
+        <v>0.899712</v>
       </c>
       <c r="B31" t="n">
-        <v>9.78097</v>
+        <v>13.9534</v>
       </c>
       <c r="C31" t="n">
-        <v>9780.969999999999</v>
+        <v>13953.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93088</v>
+        <v>0.930889</v>
       </c>
       <c r="B32" t="n">
-        <v>9.73691</v>
+        <v>13.8705</v>
       </c>
       <c r="C32" t="n">
-        <v>9736.91</v>
+        <v>13870.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620570000000001</v>
+        <v>0.9620610000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>9.691120000000002</v>
+        <v>13.7797</v>
       </c>
       <c r="C33" t="n">
-        <v>9691.120000000001</v>
+        <v>13779.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993229</v>
+        <v>0.993238</v>
       </c>
       <c r="B34" t="n">
-        <v>9.64325</v>
+        <v>13.6833</v>
       </c>
       <c r="C34" t="n">
-        <v>9643.25</v>
+        <v>13683.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02454</v>
+        <v>1.02426</v>
       </c>
       <c r="B35" t="n">
-        <v>9.59337</v>
+        <v>13.5787</v>
       </c>
       <c r="C35" t="n">
-        <v>9593.370000000001</v>
+        <v>13578.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05592</v>
+        <v>1.05523</v>
       </c>
       <c r="B36" t="n">
-        <v>9.54213</v>
+        <v>13.4677</v>
       </c>
       <c r="C36" t="n">
-        <v>9542.129999999999</v>
+        <v>13467.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0873</v>
+        <v>1.0862</v>
       </c>
       <c r="B37" t="n">
-        <v>9.489270000000001</v>
+        <v>13.3479</v>
       </c>
       <c r="C37" t="n">
-        <v>9489.27</v>
+        <v>13347.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11868</v>
+        <v>1.11717</v>
       </c>
       <c r="B38" t="n">
-        <v>9.4345</v>
+        <v>13.2208</v>
       </c>
       <c r="C38" t="n">
-        <v>9434.5</v>
+        <v>13220.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15006</v>
+        <v>1.14813</v>
       </c>
       <c r="B39" t="n">
-        <v>9.37743</v>
+        <v>13.0861</v>
       </c>
       <c r="C39" t="n">
-        <v>9377.43</v>
+        <v>13086.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18138</v>
+        <v>1.1791</v>
       </c>
       <c r="B40" t="n">
-        <v>9.318760000000001</v>
+        <v>12.9427</v>
       </c>
       <c r="C40" t="n">
-        <v>9318.76</v>
+        <v>12942.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21239</v>
+        <v>1.21009</v>
       </c>
       <c r="B41" t="n">
-        <v>9.258100000000001</v>
+        <v>9.753549999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>9258.1</v>
+        <v>9753.549999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24338</v>
+        <v>1.24087</v>
       </c>
       <c r="B42" t="n">
-        <v>9.194520000000001</v>
+        <v>12.5496</v>
       </c>
       <c r="C42" t="n">
-        <v>9194.52</v>
+        <v>12549.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.2744</v>
+        <v>1.27159</v>
       </c>
       <c r="B43" t="n">
-        <v>9.1289</v>
+        <v>12.401</v>
       </c>
       <c r="C43" t="n">
-        <v>9128.9</v>
+        <v>12401</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30531</v>
+        <v>1.30214</v>
       </c>
       <c r="B44" t="n">
-        <v>9.05926</v>
+        <v>13.0024</v>
       </c>
       <c r="C44" t="n">
-        <v>9059.26</v>
+        <v>13002.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33643</v>
+        <v>1.3336</v>
       </c>
       <c r="B45" t="n">
-        <v>8.98659</v>
+        <v>12.3629</v>
       </c>
       <c r="C45" t="n">
-        <v>8986.59</v>
+        <v>12362.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36724</v>
+        <v>1.36466</v>
       </c>
       <c r="B46" t="n">
-        <v>8.910440000000001</v>
+        <v>12.127</v>
       </c>
       <c r="C46" t="n">
-        <v>8910.440000000001</v>
+        <v>12127</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39843</v>
+        <v>1.39544</v>
       </c>
       <c r="B47" t="n">
-        <v>8.82992</v>
+        <v>12.1046</v>
       </c>
       <c r="C47" t="n">
-        <v>8829.92</v>
+        <v>12104.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42933</v>
+        <v>1.42674</v>
       </c>
       <c r="B48" t="n">
-        <v>8.74502</v>
+        <v>12.056</v>
       </c>
       <c r="C48" t="n">
-        <v>8745.02</v>
+        <v>12056</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46041</v>
+        <v>1.45753</v>
       </c>
       <c r="B49" t="n">
-        <v>8.65649</v>
+        <v>11.9075</v>
       </c>
       <c r="C49" t="n">
-        <v>8656.49</v>
+        <v>11907.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.4914</v>
+        <v>1.48873</v>
       </c>
       <c r="B50" t="n">
-        <v>8.56348</v>
+        <v>11.571</v>
       </c>
       <c r="C50" t="n">
-        <v>8563.48</v>
+        <v>11571</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52233</v>
+        <v>1.52005</v>
       </c>
       <c r="B51" t="n">
-        <v>8.46716</v>
+        <v>11.4703</v>
       </c>
       <c r="C51" t="n">
-        <v>8467.16</v>
+        <v>11470.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55347</v>
+        <v>1.5511</v>
       </c>
       <c r="B52" t="n">
-        <v>8.36463</v>
+        <v>11.1693</v>
       </c>
       <c r="C52" t="n">
-        <v>8364.629999999999</v>
+        <v>11169.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58423</v>
+        <v>1.58214</v>
       </c>
       <c r="B53" t="n">
-        <v>8.259600000000001</v>
+        <v>10.8836</v>
       </c>
       <c r="C53" t="n">
-        <v>8259.6</v>
+        <v>10883.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61547</v>
+        <v>1.61316</v>
       </c>
       <c r="B54" t="n">
-        <v>8.148569999999999</v>
+        <v>10.6084</v>
       </c>
       <c r="C54" t="n">
-        <v>8148.57</v>
+        <v>10608.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64622</v>
+        <v>1.64408</v>
       </c>
       <c r="B55" t="n">
-        <v>8.035819999999999</v>
+        <v>10.5164</v>
       </c>
       <c r="C55" t="n">
-        <v>8035.82</v>
+        <v>10516.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67751</v>
+        <v>1.67519</v>
       </c>
       <c r="B56" t="n">
-        <v>7.91751</v>
+        <v>10.2992</v>
       </c>
       <c r="C56" t="n">
-        <v>7917.51</v>
+        <v>10299.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.7082</v>
+        <v>1.70626</v>
       </c>
       <c r="B57" t="n">
-        <v>7.79796</v>
+        <v>10.0463</v>
       </c>
       <c r="C57" t="n">
-        <v>7797.96</v>
+        <v>10046.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73949</v>
+        <v>1.73741</v>
       </c>
       <c r="B58" t="n">
-        <v>7.67362</v>
+        <v>9.751290000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>7673.62</v>
+        <v>9751.290000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77025</v>
+        <v>1.76835</v>
       </c>
       <c r="B59" t="n">
-        <v>7.54949</v>
+        <v>9.543060000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>7549.49</v>
+        <v>9543.059999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80147</v>
+        <v>1.79957</v>
       </c>
       <c r="B60" t="n">
-        <v>7.42187</v>
+        <v>9.37257</v>
       </c>
       <c r="C60" t="n">
-        <v>7421.87</v>
+        <v>9372.57</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83239</v>
+        <v>1.83013</v>
       </c>
       <c r="B61" t="n">
-        <v>7.29387</v>
+        <v>9.169370000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>7293.87</v>
+        <v>9169.370000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86335</v>
+        <v>1.86161</v>
       </c>
       <c r="B62" t="n">
-        <v>7.16472</v>
+        <v>8.93299</v>
       </c>
       <c r="C62" t="n">
-        <v>7164.72</v>
+        <v>8932.99</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89451</v>
+        <v>1.89235</v>
       </c>
       <c r="B63" t="n">
-        <v>7.03406</v>
+        <v>8.70158</v>
       </c>
       <c r="C63" t="n">
-        <v>7034.06</v>
+        <v>8701.58</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.925</v>
+        <v>1.92353</v>
       </c>
       <c r="B64" t="n">
-        <v>6.90683</v>
+        <v>8.56859</v>
       </c>
       <c r="C64" t="n">
-        <v>6906.83</v>
+        <v>8568.59</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95651</v>
+        <v>1.95466</v>
       </c>
       <c r="B65" t="n">
-        <v>6.77564</v>
+        <v>8.354900000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>6775.64</v>
+        <v>8354.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98735</v>
+        <v>1.98511</v>
       </c>
       <c r="B66" t="n">
-        <v>6.64874</v>
+        <v>8.22058</v>
       </c>
       <c r="C66" t="n">
-        <v>6648.74</v>
+        <v>8220.58</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01822</v>
+        <v>2.01647</v>
       </c>
       <c r="B67" t="n">
-        <v>6.52268</v>
+        <v>8.019590000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>6522.68</v>
+        <v>8019.59</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04984</v>
+        <v>2.0472</v>
       </c>
       <c r="B68" t="n">
-        <v>6.39611</v>
+        <v>7.896520000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>6396.11</v>
+        <v>7896.52</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08031</v>
+        <v>2.07822</v>
       </c>
       <c r="B69" t="n">
-        <v>6.27363</v>
+        <v>7.72645</v>
       </c>
       <c r="C69" t="n">
-        <v>6273.63</v>
+        <v>7726.45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11135</v>
+        <v>2.10939</v>
       </c>
       <c r="B70" t="n">
-        <v>6.152229999999999</v>
+        <v>7.58938</v>
       </c>
       <c r="C70" t="n">
-        <v>6152.23</v>
+        <v>7589.38</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14251</v>
+        <v>2.14047</v>
       </c>
       <c r="B71" t="n">
-        <v>6.03289</v>
+        <v>7.459810000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>6032.89</v>
+        <v>7459.81</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17291</v>
+        <v>2.17099</v>
       </c>
       <c r="B72" t="n">
-        <v>5.91837</v>
+        <v>7.33684</v>
       </c>
       <c r="C72" t="n">
-        <v>5918.37</v>
+        <v>7336.84</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20406</v>
+        <v>2.20213</v>
       </c>
       <c r="B73" t="n">
-        <v>5.80659</v>
+        <v>7.221229999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>5806.59</v>
+        <v>7221.23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23538</v>
+        <v>2.23362</v>
       </c>
       <c r="B74" t="n">
-        <v>5.69709</v>
+        <v>7.10055</v>
       </c>
       <c r="C74" t="n">
-        <v>5697.09</v>
+        <v>7100.55</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.2661</v>
+        <v>2.26435</v>
       </c>
       <c r="B75" t="n">
-        <v>5.594390000000001</v>
+        <v>7.002689999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>5594.39</v>
+        <v>7002.69</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29682</v>
+        <v>2.29454</v>
       </c>
       <c r="B76" t="n">
-        <v>5.497479999999999</v>
+        <v>6.910060000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>5497.48</v>
+        <v>6910.06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32819</v>
+        <v>2.32646</v>
       </c>
       <c r="B77" t="n">
-        <v>5.40011</v>
+        <v>6.807770000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>5400.11</v>
+        <v>6807.77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35927</v>
+        <v>2.35808</v>
       </c>
       <c r="B78" t="n">
-        <v>5.30825</v>
+        <v>6.71168</v>
       </c>
       <c r="C78" t="n">
-        <v>5308.25</v>
+        <v>6711.68</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39036</v>
+        <v>2.38807</v>
       </c>
       <c r="B79" t="n">
-        <v>5.2217</v>
+        <v>6.64354</v>
       </c>
       <c r="C79" t="n">
-        <v>5221.7</v>
+        <v>6643.54</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.4205</v>
+        <v>2.41838</v>
       </c>
       <c r="B80" t="n">
-        <v>5.13984</v>
+        <v>6.553350000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>5139.84</v>
+        <v>6553.35</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45215</v>
+        <v>2.44861</v>
       </c>
       <c r="B81" t="n">
-        <v>5.060960000000001</v>
+        <v>6.5022</v>
       </c>
       <c r="C81" t="n">
-        <v>5060.96</v>
+        <v>6502.2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48337</v>
+        <v>2.47765</v>
       </c>
       <c r="B82" t="n">
-        <v>4.99104</v>
+        <v>6.41443</v>
       </c>
       <c r="C82" t="n">
-        <v>4991.04</v>
+        <v>6414.43</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51652</v>
+        <v>2.50739</v>
       </c>
       <c r="B83" t="n">
-        <v>4.94045</v>
+        <v>6.35234</v>
       </c>
       <c r="C83" t="n">
-        <v>4940.45</v>
+        <v>6352.34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54832</v>
+        <v>2.54235</v>
       </c>
       <c r="B84" t="n">
-        <v>4.90476</v>
+        <v>6.34708</v>
       </c>
       <c r="C84" t="n">
-        <v>4904.76</v>
+        <v>6347.08</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57904</v>
+        <v>2.57465</v>
       </c>
       <c r="B85" t="n">
-        <v>4.88657</v>
+        <v>6.340560000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>4886.57</v>
+        <v>6340.56</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60976</v>
+        <v>2.60666</v>
       </c>
       <c r="B86" t="n">
-        <v>4.86391</v>
+        <v>6.300479999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>4863.91</v>
+        <v>6300.48</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64048</v>
+        <v>2.63866</v>
       </c>
       <c r="B87" t="n">
-        <v>4.83812</v>
+        <v>6.29258</v>
       </c>
       <c r="C87" t="n">
-        <v>4838.12</v>
+        <v>6292.58</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.6712</v>
+        <v>2.67066</v>
       </c>
       <c r="B88" t="n">
-        <v>4.81531</v>
+        <v>6.278300000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>4815.31</v>
+        <v>6278.3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70192</v>
+        <v>2.70266</v>
       </c>
       <c r="B89" t="n">
-        <v>4.79464</v>
+        <v>6.23991</v>
       </c>
       <c r="C89" t="n">
-        <v>4794.64</v>
+        <v>6239.91</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73102</v>
+        <v>2.73465</v>
       </c>
       <c r="B90" t="n">
-        <v>4.766649999999999</v>
+        <v>6.21583</v>
       </c>
       <c r="C90" t="n">
-        <v>4766.65</v>
+        <v>6215.83</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75918</v>
+        <v>2.76548</v>
       </c>
       <c r="B91" t="n">
-        <v>4.73997</v>
+        <v>6.17875</v>
       </c>
       <c r="C91" t="n">
-        <v>4739.97</v>
+        <v>6178.75</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78734</v>
+        <v>2.79435</v>
       </c>
       <c r="B92" t="n">
-        <v>4.713270000000001</v>
+        <v>6.14192</v>
       </c>
       <c r="C92" t="n">
-        <v>4713.27</v>
+        <v>6141.92</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.8155</v>
+        <v>2.82316</v>
       </c>
       <c r="B93" t="n">
-        <v>4.68738</v>
+        <v>6.13351</v>
       </c>
       <c r="C93" t="n">
-        <v>4687.38</v>
+        <v>6133.51</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.84741</v>
+        <v>2.85196</v>
       </c>
       <c r="B94" t="n">
-        <v>4.6516</v>
+        <v>6.09731</v>
       </c>
       <c r="C94" t="n">
-        <v>4651.6</v>
+        <v>6097.31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88261</v>
+        <v>2.88076</v>
       </c>
       <c r="B95" t="n">
-        <v>4.623850000000001</v>
+        <v>6.05618</v>
       </c>
       <c r="C95" t="n">
-        <v>4623.85</v>
+        <v>6056.18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91781</v>
+        <v>2.90956</v>
       </c>
       <c r="B96" t="n">
-        <v>4.59321</v>
+        <v>6.021500000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>4593.21</v>
+        <v>6021.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.9502</v>
+        <v>2.93836</v>
       </c>
       <c r="B97" t="n">
-        <v>4.56012</v>
+        <v>5.98705</v>
       </c>
       <c r="C97" t="n">
-        <v>4560.12</v>
+        <v>5987.05</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.9822</v>
+        <v>2.96716</v>
       </c>
       <c r="B98" t="n">
-        <v>4.52523</v>
+        <v>5.95692</v>
       </c>
       <c r="C98" t="n">
-        <v>4525.23</v>
+        <v>5956.92</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.0142</v>
+        <v>2.99596</v>
       </c>
       <c r="B99" t="n">
-        <v>4.4875</v>
+        <v>5.9349</v>
       </c>
       <c r="C99" t="n">
-        <v>4487.5</v>
+        <v>5934.9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.0462</v>
+        <v>3.0246</v>
       </c>
       <c r="B100" t="n">
-        <v>4.46443</v>
+        <v>5.89599</v>
       </c>
       <c r="C100" t="n">
-        <v>4464.43</v>
+        <v>5895.99</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.0782</v>
+        <v>3.05598</v>
       </c>
       <c r="B101" t="n">
-        <v>4.42581</v>
+        <v>5.867760000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>4425.81</v>
+        <v>5867.76</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.1102</v>
+        <v>3.08991</v>
       </c>
       <c r="B102" t="n">
-        <v>4.39319</v>
+        <v>5.82199</v>
       </c>
       <c r="C102" t="n">
-        <v>4393.19</v>
+        <v>5821.99</v>
       </c>
     </row>
   </sheetData>
